--- a/Dokumente/C#nema Zwischenstand.xlsx
+++ b/Dokumente/C#nema Zwischenstand.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osmanguloglu/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -209,7 +204,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -325,11 +320,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -630,33 +625,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="112" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -667,12 +662,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -686,7 +681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -700,7 +695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -712,7 +707,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -725,7 +720,7 @@
       <c r="G10" s="6"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -737,7 +732,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -749,7 +744,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -760,7 +755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -771,7 +766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -782,7 +777,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -793,7 +788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -801,18 +796,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -823,7 +818,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -834,7 +829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -845,10 +840,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -859,7 +854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -870,7 +865,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -881,7 +876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -892,7 +887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -903,7 +898,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -914,7 +909,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -925,7 +920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -936,7 +931,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -947,7 +942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -958,7 +953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -969,7 +964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -980,7 +975,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -991,7 +986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -1002,7 +997,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -1013,7 +1008,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1024,7 +1019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -1035,12 +1030,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -1051,7 +1046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1062,7 +1057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1073,7 +1068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1081,7 +1076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1092,7 +1087,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1103,7 +1098,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1111,7 +1106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -1121,7 +1116,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B47" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Zustand</formula1>
     </dataValidation>
   </dataValidations>

--- a/Dokumente/C#nema Zwischenstand.xlsx
+++ b/Dokumente/C#nema Zwischenstand.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="58">
   <si>
     <t>Programmieren 3 Projekt</t>
   </si>
@@ -629,12 +629,12 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="112" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
@@ -686,7 +686,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -749,7 +749,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
@@ -793,7 +793,10 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -834,7 +837,7 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
@@ -1103,7 +1106,10 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">

--- a/Dokumente/C#nema Zwischenstand.xlsx
+++ b/Dokumente/C#nema Zwischenstand.xlsx
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="112" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +725,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>

--- a/Dokumente/C#nema Zwischenstand.xlsx
+++ b/Dokumente/C#nema Zwischenstand.xlsx
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="112" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,7 +737,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -1076,7 +1076,7 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">

--- a/Dokumente/C#nema Zwischenstand.xlsx
+++ b/Dokumente/C#nema Zwischenstand.xlsx
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="112" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="112" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,7 +1027,7 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
